--- a/com.crm.vtiger/src/test/resources/NewTestData.xlsx
+++ b/com.crm.vtiger/src/test/resources/NewTestData.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a885b2d892bf9a0d/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\git\repository2\com.crm.vtiger\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E1BC12CEF1E37CE26E339E56ADDC14C75C28AAED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25AADAD8-A14E-47E0-8553-5F525373E389}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE777B0D-8965-40CB-A518-45BEC6E4A580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2256" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="DataProvider" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,23 +26,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t>Sustine</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>testyantra</t>
+  </si>
+  <si>
+    <t>Mathi</t>
+  </si>
+  <si>
+    <t>Radhika</t>
+  </si>
+  <si>
+    <t>Kundu</t>
+  </si>
+  <si>
+    <t>Ashirbath</t>
+  </si>
+  <si>
+    <t>mathi</t>
+  </si>
+  <si>
+    <t>sowmya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,13 +87,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{FF95F8C3-A610-413D-9CDE-59AB665A37CA}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,21 +373,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC186BD-BB5F-45C3-AA98-EFA865A75C42}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>1</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
